--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -62,7 +62,7 @@
     <t>https://pinta.mylemonspace.com/</t>
   </si>
   <si>
-    <t>figd_IxaZqgrOp_eXBhwGtqtGuG3QT2pca6ipA_Gv9ImR</t>
+    <t>figd_rvMMH8AnkiaPdgSxp-6U3W0tQH_Ku6o1w1wsQDrh</t>
   </si>
   <si>
     <t>Ef6BUmo32hJN9Yd9N0vAG9</t>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6296296296296" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Run</t>
   </si>
@@ -50,25 +50,43 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Pinta_Home_page.png</t>
+  </si>
+  <si>
+    <t>https://pinta.mylemonspace.com/</t>
+  </si>
+  <si>
+    <t>figd_rvMMH8AnkiaPdgSxp-6U3W0tQH_Ku6o1w1wsQDrh</t>
+  </si>
+  <si>
+    <t>Ef6BUmo32hJN9Yd9N0vAG9</t>
+  </si>
+  <si>
+    <t>328-3805</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Pinta_Home_page.png</t>
-  </si>
-  <si>
-    <t>https://pinta.mylemonspace.com/</t>
-  </si>
-  <si>
-    <t>figd_rvMMH8AnkiaPdgSxp-6U3W0tQH_Ku6o1w1wsQDrh</t>
-  </si>
-  <si>
-    <t>Ef6BUmo32hJN9Yd9N0vAG9</t>
-  </si>
-  <si>
-    <t>328-3805</t>
+    <t>Galaxy_Homepage.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/</t>
+  </si>
+  <si>
+    <t>figd_KJN1HF_4dhIg18KW3ITKsWEpNokWDFTWGwM7Q_Xt</t>
+  </si>
+  <si>
+    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
+  </si>
+  <si>
+    <t>3490-11059</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1047,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6296296296296" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1088,6 +1106,29 @@
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="4:4">
